--- a/2021raw_corrected.xlsx
+++ b/2021raw_corrected.xlsx
@@ -1329,7 +1329,7 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -1700,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="J3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1882,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="J4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -2253,7 +2253,7 @@
         <v>2</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -2839,7 +2839,7 @@
         <v>2</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -3021,7 +3021,7 @@
         <v>3</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -3267,7 +3267,7 @@
         <v>1</v>
       </c>
       <c r="CN8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO8">
         <v>2</v>
@@ -3392,7 +3392,7 @@
         <v>3</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -3574,7 +3574,7 @@
         <v>3</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>3</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -4127,7 +4127,7 @@
         <v>4</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -4235,7 +4235,7 @@
         <v>4</v>
       </c>
       <c r="AT12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -4309,7 +4309,7 @@
         <v>3</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -4491,7 +4491,7 @@
         <v>3</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -4862,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -5233,7 +5233,7 @@
         <v>3</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -5415,7 +5415,7 @@
         <v>3</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -5661,7 +5661,7 @@
         <v>1</v>
       </c>
       <c r="CN17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO17">
         <v>1</v>
@@ -5786,7 +5786,7 @@
         <v>3</v>
       </c>
       <c r="J18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -5968,7 +5968,7 @@
         <v>3</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -6150,7 +6150,7 @@
         <v>2</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -6514,7 +6514,7 @@
         <v>3</v>
       </c>
       <c r="J22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -6696,7 +6696,7 @@
         <v>3</v>
       </c>
       <c r="J23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -7067,7 +7067,7 @@
         <v>3</v>
       </c>
       <c r="J24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -7249,7 +7249,7 @@
         <v>3</v>
       </c>
       <c r="J25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -7431,7 +7431,7 @@
         <v>3</v>
       </c>
       <c r="J26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="J27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -7910,7 +7910,7 @@
         <v>3</v>
       </c>
       <c r="AT27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU27">
         <v>4</v>
@@ -8173,7 +8173,7 @@
         <v>4</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -8419,7 +8419,7 @@
         <v>2</v>
       </c>
       <c r="CN28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO28">
         <v>3</v>
@@ -8634,7 +8634,7 @@
         <v>1</v>
       </c>
       <c r="CN29">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO29">
         <v>2</v>
@@ -8974,7 +8974,7 @@
         <v>3</v>
       </c>
       <c r="J31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -9156,7 +9156,7 @@
         <v>3</v>
       </c>
       <c r="J32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -9338,7 +9338,7 @@
         <v>3</v>
       </c>
       <c r="J33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -9709,7 +9709,7 @@
         <v>4</v>
       </c>
       <c r="J34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -10080,7 +10080,7 @@
         <v>3</v>
       </c>
       <c r="J35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -10262,7 +10262,7 @@
         <v>3</v>
       </c>
       <c r="J36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -10508,7 +10508,7 @@
         <v>1</v>
       </c>
       <c r="CN36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO36">
         <v>3</v>
@@ -10633,7 +10633,7 @@
         <v>3</v>
       </c>
       <c r="J37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -11004,7 +11004,7 @@
         <v>3</v>
       </c>
       <c r="J38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -11250,7 +11250,7 @@
         <v>1</v>
       </c>
       <c r="CN38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO38">
         <v>2</v>
@@ -11375,7 +11375,7 @@
         <v>3</v>
       </c>
       <c r="J39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -11621,7 +11621,7 @@
         <v>1</v>
       </c>
       <c r="CN39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO39">
         <v>5</v>
@@ -11746,7 +11746,7 @@
         <v>3</v>
       </c>
       <c r="J40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -12117,7 +12117,7 @@
         <v>3</v>
       </c>
       <c r="J41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -12299,7 +12299,7 @@
         <v>3</v>
       </c>
       <c r="J42">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -12545,7 +12545,7 @@
         <v>1</v>
       </c>
       <c r="CN42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO42">
         <v>3</v>
@@ -12670,7 +12670,7 @@
         <v>3</v>
       </c>
       <c r="J43">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -12916,7 +12916,7 @@
         <v>2</v>
       </c>
       <c r="CN43">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO43">
         <v>2</v>
@@ -13041,7 +13041,7 @@
         <v>3</v>
       </c>
       <c r="J44">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -13412,7 +13412,7 @@
         <v>3</v>
       </c>
       <c r="J45">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -13783,7 +13783,7 @@
         <v>5</v>
       </c>
       <c r="J46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -13891,7 +13891,7 @@
         <v>3</v>
       </c>
       <c r="AT46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU46">
         <v>1</v>
@@ -14029,7 +14029,7 @@
         <v>1</v>
       </c>
       <c r="CN46">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO46">
         <v>2</v>
@@ -14080,7 +14080,7 @@
         <v>4</v>
       </c>
       <c r="DE46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DF46">
         <v>1</v>
@@ -14154,7 +14154,7 @@
         <v>3</v>
       </c>
       <c r="J47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -14336,7 +14336,7 @@
         <v>3</v>
       </c>
       <c r="J48">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -14582,7 +14582,7 @@
         <v>1</v>
       </c>
       <c r="CN48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO48">
         <v>3</v>
@@ -14707,7 +14707,7 @@
         <v>3</v>
       </c>
       <c r="J49">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -14953,7 +14953,7 @@
         <v>1</v>
       </c>
       <c r="CN49">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO49">
         <v>4</v>
@@ -15078,7 +15078,7 @@
         <v>1</v>
       </c>
       <c r="J50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -15449,7 +15449,7 @@
         <v>2</v>
       </c>
       <c r="J51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -15695,7 +15695,7 @@
         <v>1</v>
       </c>
       <c r="CN51">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO51">
         <v>2</v>
@@ -15820,7 +15820,7 @@
         <v>3</v>
       </c>
       <c r="J52">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -16002,7 +16002,7 @@
         <v>1</v>
       </c>
       <c r="J53">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -16373,7 +16373,7 @@
         <v>3</v>
       </c>
       <c r="J54">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -16555,7 +16555,7 @@
         <v>3</v>
       </c>
       <c r="J55">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -16737,7 +16737,7 @@
         <v>3</v>
       </c>
       <c r="J56">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -16919,7 +16919,7 @@
         <v>4</v>
       </c>
       <c r="J57">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -17101,7 +17101,7 @@
         <v>3</v>
       </c>
       <c r="J58">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -17283,7 +17283,7 @@
         <v>1</v>
       </c>
       <c r="J59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K59">
         <v>2</v>
@@ -17654,7 +17654,7 @@
         <v>3</v>
       </c>
       <c r="J60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -17836,7 +17836,7 @@
         <v>3</v>
       </c>
       <c r="J61">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -18082,7 +18082,7 @@
         <v>1</v>
       </c>
       <c r="CN61">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO61">
         <v>2</v>
@@ -18133,7 +18133,7 @@
         <v>1</v>
       </c>
       <c r="DE61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DF61">
         <v>1</v>
@@ -18207,7 +18207,7 @@
         <v>2</v>
       </c>
       <c r="J62">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -18453,7 +18453,7 @@
         <v>1</v>
       </c>
       <c r="CN62">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO62">
         <v>2</v>
@@ -18578,7 +18578,7 @@
         <v>4</v>
       </c>
       <c r="J63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -19131,7 +19131,7 @@
         <v>3</v>
       </c>
       <c r="J65">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -19239,7 +19239,7 @@
         <v>1</v>
       </c>
       <c r="AT65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU65">
         <v>2</v>
@@ -19313,7 +19313,7 @@
         <v>3</v>
       </c>
       <c r="J66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -19495,7 +19495,7 @@
         <v>3</v>
       </c>
       <c r="J67">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -19677,7 +19677,7 @@
         <v>3</v>
       </c>
       <c r="J68">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -19859,7 +19859,7 @@
         <v>3</v>
       </c>
       <c r="J69">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -20230,7 +20230,7 @@
         <v>3</v>
       </c>
       <c r="J70">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -20412,7 +20412,7 @@
         <v>4</v>
       </c>
       <c r="J71">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -20658,7 +20658,7 @@
         <v>2</v>
       </c>
       <c r="CN71">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO71">
         <v>3</v>
@@ -20783,7 +20783,7 @@
         <v>3</v>
       </c>
       <c r="J72">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -21029,7 +21029,7 @@
         <v>5</v>
       </c>
       <c r="CN72">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO72">
         <v>3</v>
@@ -21154,7 +21154,7 @@
         <v>1</v>
       </c>
       <c r="J73">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -21336,7 +21336,7 @@
         <v>1</v>
       </c>
       <c r="J74">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K74">
         <v>2</v>
@@ -21518,7 +21518,7 @@
         <v>3</v>
       </c>
       <c r="J75">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -21764,7 +21764,7 @@
         <v>1</v>
       </c>
       <c r="CN75">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO75">
         <v>5</v>
@@ -21889,7 +21889,7 @@
         <v>2</v>
       </c>
       <c r="J76">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -22260,7 +22260,7 @@
         <v>3</v>
       </c>
       <c r="J77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -22506,7 +22506,7 @@
         <v>1</v>
       </c>
       <c r="CN77">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO77">
         <v>4</v>
@@ -22631,7 +22631,7 @@
         <v>3</v>
       </c>
       <c r="J78">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -22877,7 +22877,7 @@
         <v>1</v>
       </c>
       <c r="CN78">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO78">
         <v>3</v>
@@ -23002,7 +23002,7 @@
         <v>3</v>
       </c>
       <c r="J79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -23184,7 +23184,7 @@
         <v>5</v>
       </c>
       <c r="J80">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -23430,7 +23430,7 @@
         <v>4</v>
       </c>
       <c r="CN80">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO80">
         <v>2</v>
@@ -23555,7 +23555,7 @@
         <v>3</v>
       </c>
       <c r="J81">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -23926,7 +23926,7 @@
         <v>3</v>
       </c>
       <c r="J82">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -24297,7 +24297,7 @@
         <v>3</v>
       </c>
       <c r="J83">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -24543,7 +24543,7 @@
         <v>1</v>
       </c>
       <c r="CN83">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO83">
         <v>4</v>
@@ -24668,7 +24668,7 @@
         <v>3</v>
       </c>
       <c r="J84">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -24914,7 +24914,7 @@
         <v>2</v>
       </c>
       <c r="CN84">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO84">
         <v>4</v>
@@ -25039,7 +25039,7 @@
         <v>3</v>
       </c>
       <c r="J85">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -25221,7 +25221,7 @@
         <v>4</v>
       </c>
       <c r="J86">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -25592,7 +25592,7 @@
         <v>3</v>
       </c>
       <c r="J87">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -25774,7 +25774,7 @@
         <v>1</v>
       </c>
       <c r="J88">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K88">
         <v>2</v>
@@ -26145,7 +26145,7 @@
         <v>3</v>
       </c>
       <c r="J89">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K89">
         <v>2</v>
@@ -26391,7 +26391,7 @@
         <v>1</v>
       </c>
       <c r="CN89">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO89">
         <v>3</v>
@@ -26516,7 +26516,7 @@
         <v>3</v>
       </c>
       <c r="J90">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -26698,7 +26698,7 @@
         <v>3</v>
       </c>
       <c r="J91">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K91">
         <v>2</v>
@@ -26880,7 +26880,7 @@
         <v>3</v>
       </c>
       <c r="J92">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -27062,7 +27062,7 @@
         <v>3</v>
       </c>
       <c r="J93">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K93">
         <v>2</v>
@@ -27244,7 +27244,7 @@
         <v>4</v>
       </c>
       <c r="J94">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K94">
         <v>2</v>
@@ -27615,7 +27615,7 @@
         <v>1</v>
       </c>
       <c r="J95">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -27861,7 +27861,7 @@
         <v>1</v>
       </c>
       <c r="CN95">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO95">
         <v>2</v>
@@ -27986,7 +27986,7 @@
         <v>4</v>
       </c>
       <c r="J96">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K96">
         <v>2</v>
@@ -28232,7 +28232,7 @@
         <v>3</v>
       </c>
       <c r="CN96">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO96">
         <v>3</v>
@@ -28357,7 +28357,7 @@
         <v>3</v>
       </c>
       <c r="J97">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K97">
         <v>2</v>
@@ -28539,7 +28539,7 @@
         <v>3</v>
       </c>
       <c r="J98">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K98">
         <v>2</v>
@@ -28721,7 +28721,7 @@
         <v>3</v>
       </c>
       <c r="J99">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K99">
         <v>2</v>
@@ -28903,7 +28903,7 @@
         <v>3</v>
       </c>
       <c r="J100">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K100">
         <v>2</v>
@@ -29085,7 +29085,7 @@
         <v>3</v>
       </c>
       <c r="J101">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K101">
         <v>1</v>
@@ -29267,7 +29267,7 @@
         <v>4</v>
       </c>
       <c r="J102">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K102">
         <v>2</v>
@@ -29638,7 +29638,7 @@
         <v>3</v>
       </c>
       <c r="J103">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K103">
         <v>2</v>
@@ -30009,7 +30009,7 @@
         <v>2</v>
       </c>
       <c r="J104">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K104">
         <v>2</v>
@@ -30255,7 +30255,7 @@
         <v>1</v>
       </c>
       <c r="CN104">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO104">
         <v>5</v>
@@ -30380,7 +30380,7 @@
         <v>1</v>
       </c>
       <c r="J105">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K105">
         <v>2</v>
@@ -30751,7 +30751,7 @@
         <v>3</v>
       </c>
       <c r="J106">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K106">
         <v>2</v>
@@ -31122,7 +31122,7 @@
         <v>2</v>
       </c>
       <c r="J107">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K107">
         <v>2</v>
@@ -31493,7 +31493,7 @@
         <v>3</v>
       </c>
       <c r="J108">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K108">
         <v>2</v>
@@ -31739,7 +31739,7 @@
         <v>1</v>
       </c>
       <c r="CN108">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO108">
         <v>2</v>
@@ -31864,7 +31864,7 @@
         <v>3</v>
       </c>
       <c r="J109">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K109">
         <v>2</v>
@@ -32110,7 +32110,7 @@
         <v>1</v>
       </c>
       <c r="CN109">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO109">
         <v>3</v>
@@ -32235,7 +32235,7 @@
         <v>3</v>
       </c>
       <c r="J110">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K110">
         <v>2</v>
@@ -32417,7 +32417,7 @@
         <v>3</v>
       </c>
       <c r="J111">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K111">
         <v>2</v>
@@ -32663,7 +32663,7 @@
         <v>1</v>
       </c>
       <c r="CN111">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO111">
         <v>1</v>
@@ -32788,7 +32788,7 @@
         <v>3</v>
       </c>
       <c r="J112">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K112">
         <v>2</v>
@@ -33034,7 +33034,7 @@
         <v>1</v>
       </c>
       <c r="CN112">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO112">
         <v>2</v>
@@ -33085,7 +33085,7 @@
         <v>1</v>
       </c>
       <c r="DE112">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DF112">
         <v>1</v>
@@ -33249,7 +33249,7 @@
         <v>1</v>
       </c>
       <c r="CN113">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO113">
         <v>4</v>
@@ -33374,7 +33374,7 @@
         <v>3</v>
       </c>
       <c r="J114">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -33556,7 +33556,7 @@
         <v>3</v>
       </c>
       <c r="J115">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K115">
         <v>2</v>
@@ -33738,7 +33738,7 @@
         <v>4</v>
       </c>
       <c r="J116">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K116">
         <v>2</v>
@@ -33920,7 +33920,7 @@
         <v>3</v>
       </c>
       <c r="J117">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K117">
         <v>2</v>
@@ -34291,7 +34291,7 @@
         <v>3</v>
       </c>
       <c r="J118">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K118">
         <v>2</v>
@@ -34473,7 +34473,7 @@
         <v>4</v>
       </c>
       <c r="J119">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K119">
         <v>2</v>
@@ -34837,7 +34837,7 @@
         <v>1</v>
       </c>
       <c r="J121">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K121">
         <v>1</v>
@@ -35083,7 +35083,7 @@
         <v>1</v>
       </c>
       <c r="CN121">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO121">
         <v>4</v>
@@ -35208,7 +35208,7 @@
         <v>3</v>
       </c>
       <c r="J122">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K122">
         <v>2</v>
@@ -35579,7 +35579,7 @@
         <v>3</v>
       </c>
       <c r="J123">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K123">
         <v>2</v>
@@ -35761,7 +35761,7 @@
         <v>3</v>
       </c>
       <c r="J124">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K124">
         <v>2</v>
@@ -36132,7 +36132,7 @@
         <v>3</v>
       </c>
       <c r="J125">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K125">
         <v>1</v>
@@ -36378,7 +36378,7 @@
         <v>1</v>
       </c>
       <c r="CN125">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO125">
         <v>2</v>
@@ -36503,7 +36503,7 @@
         <v>3</v>
       </c>
       <c r="J126">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K126">
         <v>1</v>
@@ -36867,7 +36867,7 @@
         <v>5</v>
       </c>
       <c r="J128">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K128">
         <v>2</v>
@@ -37238,7 +37238,7 @@
         <v>3</v>
       </c>
       <c r="J129">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K129">
         <v>2</v>
@@ -37609,7 +37609,7 @@
         <v>2</v>
       </c>
       <c r="J130">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K130">
         <v>2</v>
@@ -37791,7 +37791,7 @@
         <v>4</v>
       </c>
       <c r="J131">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K131">
         <v>2</v>
@@ -38162,7 +38162,7 @@
         <v>2</v>
       </c>
       <c r="J132">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K132">
         <v>2</v>
@@ -38344,7 +38344,7 @@
         <v>4</v>
       </c>
       <c r="J133">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K133">
         <v>2</v>
@@ -38590,7 +38590,7 @@
         <v>3</v>
       </c>
       <c r="CN133">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO133">
         <v>5</v>
@@ -38715,7 +38715,7 @@
         <v>1</v>
       </c>
       <c r="J134">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K134">
         <v>2</v>
@@ -38897,7 +38897,7 @@
         <v>2</v>
       </c>
       <c r="J135">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K135">
         <v>2</v>
@@ -39143,7 +39143,7 @@
         <v>1</v>
       </c>
       <c r="CN135">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO135">
         <v>2</v>
@@ -39268,7 +39268,7 @@
         <v>3</v>
       </c>
       <c r="J136">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K136">
         <v>2</v>
@@ -39376,7 +39376,7 @@
         <v>4</v>
       </c>
       <c r="AT136">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU136">
         <v>2</v>
@@ -39514,7 +39514,7 @@
         <v>1</v>
       </c>
       <c r="CN136">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO136">
         <v>2</v>
@@ -39565,7 +39565,7 @@
         <v>3</v>
       </c>
       <c r="DE136">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DF136">
         <v>5</v>
@@ -39639,7 +39639,7 @@
         <v>3</v>
       </c>
       <c r="J137">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K137">
         <v>2</v>
@@ -39747,7 +39747,7 @@
         <v>1</v>
       </c>
       <c r="AT137">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU137">
         <v>5</v>
@@ -39885,7 +39885,7 @@
         <v>1</v>
       </c>
       <c r="CN137">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO137">
         <v>1</v>
@@ -39936,7 +39936,7 @@
         <v>1</v>
       </c>
       <c r="DE137">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DF137">
         <v>4</v>
@@ -40010,7 +40010,7 @@
         <v>3</v>
       </c>
       <c r="J138">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K138">
         <v>2</v>
@@ -40381,7 +40381,7 @@
         <v>3</v>
       </c>
       <c r="J139">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K139">
         <v>2</v>
@@ -40627,7 +40627,7 @@
         <v>3</v>
       </c>
       <c r="CN139">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO139">
         <v>4</v>
@@ -40752,7 +40752,7 @@
         <v>3</v>
       </c>
       <c r="J140">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K140">
         <v>2</v>
@@ -41149,7 +41149,7 @@
         <v>3</v>
       </c>
       <c r="J142">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K142">
         <v>2</v>
@@ -41257,7 +41257,7 @@
         <v>1</v>
       </c>
       <c r="AT142">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU142">
         <v>2</v>
@@ -41331,7 +41331,7 @@
         <v>4</v>
       </c>
       <c r="J143">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K143">
         <v>2</v>
@@ -41513,7 +41513,7 @@
         <v>4</v>
       </c>
       <c r="J144">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K144">
         <v>2</v>
@@ -41884,7 +41884,7 @@
         <v>3</v>
       </c>
       <c r="J145">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K145">
         <v>2</v>
@@ -42437,7 +42437,7 @@
         <v>3</v>
       </c>
       <c r="J147">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K147">
         <v>2</v>
@@ -42808,7 +42808,7 @@
         <v>3</v>
       </c>
       <c r="J148">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K148">
         <v>1</v>
@@ -43179,7 +43179,7 @@
         <v>3</v>
       </c>
       <c r="J149">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K149">
         <v>2</v>
@@ -43425,7 +43425,7 @@
         <v>3</v>
       </c>
       <c r="CN149">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO149">
         <v>2</v>
@@ -43550,7 +43550,7 @@
         <v>3</v>
       </c>
       <c r="J150">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K150">
         <v>2</v>
@@ -43921,7 +43921,7 @@
         <v>3</v>
       </c>
       <c r="J151">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K151">
         <v>2</v>
@@ -44292,7 +44292,7 @@
         <v>3</v>
       </c>
       <c r="J152">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K152">
         <v>2</v>
@@ -44663,7 +44663,7 @@
         <v>2</v>
       </c>
       <c r="J153">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K153">
         <v>2</v>
@@ -44845,7 +44845,7 @@
         <v>3</v>
       </c>
       <c r="J154">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K154">
         <v>2</v>
@@ -45027,7 +45027,7 @@
         <v>3</v>
       </c>
       <c r="J155">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K155">
         <v>2</v>
@@ -45209,7 +45209,7 @@
         <v>3</v>
       </c>
       <c r="J156">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K156">
         <v>0</v>
@@ -45391,7 +45391,7 @@
         <v>3</v>
       </c>
       <c r="J157">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K157">
         <v>2</v>
@@ -45573,7 +45573,7 @@
         <v>3</v>
       </c>
       <c r="J158">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K158">
         <v>2</v>
@@ -46034,7 +46034,7 @@
         <v>1</v>
       </c>
       <c r="CN159">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO159">
         <v>3</v>
@@ -46159,7 +46159,7 @@
         <v>3</v>
       </c>
       <c r="J160">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K160">
         <v>2</v>
@@ -46530,7 +46530,7 @@
         <v>3</v>
       </c>
       <c r="J161">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K161">
         <v>2</v>
@@ -46901,7 +46901,7 @@
         <v>3</v>
       </c>
       <c r="J162">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K162">
         <v>2</v>
@@ -47272,7 +47272,7 @@
         <v>3</v>
       </c>
       <c r="J163">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K163">
         <v>2</v>
@@ -47454,7 +47454,7 @@
         <v>3</v>
       </c>
       <c r="J164">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K164">
         <v>2</v>
@@ -47825,7 +47825,7 @@
         <v>3</v>
       </c>
       <c r="J165">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K165">
         <v>2</v>
@@ -48071,7 +48071,7 @@
         <v>5</v>
       </c>
       <c r="CN165">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO165">
         <v>2</v>
@@ -48196,7 +48196,7 @@
         <v>3</v>
       </c>
       <c r="J166">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K166">
         <v>2</v>
@@ -48442,7 +48442,7 @@
         <v>1</v>
       </c>
       <c r="CN166">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO166">
         <v>3</v>
@@ -48493,7 +48493,7 @@
         <v>1</v>
       </c>
       <c r="DE166">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DF166">
         <v>2</v>
@@ -48567,7 +48567,7 @@
         <v>1</v>
       </c>
       <c r="J167">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K167">
         <v>1</v>
@@ -48938,7 +48938,7 @@
         <v>3</v>
       </c>
       <c r="J168">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K168">
         <v>2</v>
@@ -49046,7 +49046,7 @@
         <v>1</v>
       </c>
       <c r="AT168">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU168">
         <v>2</v>
@@ -49309,7 +49309,7 @@
         <v>1</v>
       </c>
       <c r="J169">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K169">
         <v>2</v>
@@ -49680,7 +49680,7 @@
         <v>3</v>
       </c>
       <c r="J170">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K170">
         <v>2</v>
@@ -49926,7 +49926,7 @@
         <v>1</v>
       </c>
       <c r="CN170">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO170">
         <v>5</v>
@@ -50051,7 +50051,7 @@
         <v>4</v>
       </c>
       <c r="J171">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K171">
         <v>2</v>
@@ -50233,7 +50233,7 @@
         <v>3</v>
       </c>
       <c r="J172">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K172">
         <v>2</v>
@@ -50415,7 +50415,7 @@
         <v>2</v>
       </c>
       <c r="J173">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K173">
         <v>2</v>
@@ -50523,7 +50523,7 @@
         <v>3</v>
       </c>
       <c r="AT173">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU173">
         <v>5</v>
@@ -50786,7 +50786,7 @@
         <v>3</v>
       </c>
       <c r="J174">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K174">
         <v>2</v>
@@ -51032,7 +51032,7 @@
         <v>1</v>
       </c>
       <c r="CN174">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO174">
         <v>3</v>
@@ -51157,7 +51157,7 @@
         <v>1</v>
       </c>
       <c r="J175">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K175">
         <v>2</v>
@@ -51528,7 +51528,7 @@
         <v>3</v>
       </c>
       <c r="J176">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K176">
         <v>2</v>
@@ -51774,7 +51774,7 @@
         <v>1</v>
       </c>
       <c r="CN176">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO176">
         <v>3</v>
@@ -51899,7 +51899,7 @@
         <v>2</v>
       </c>
       <c r="J177">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K177">
         <v>2</v>
@@ -52081,7 +52081,7 @@
         <v>5</v>
       </c>
       <c r="J178">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K178">
         <v>2</v>
@@ -52263,7 +52263,7 @@
         <v>4</v>
       </c>
       <c r="J179">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K179">
         <v>0</v>
@@ -52634,7 +52634,7 @@
         <v>3</v>
       </c>
       <c r="J180">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K180">
         <v>2</v>
@@ -52816,7 +52816,7 @@
         <v>3</v>
       </c>
       <c r="J181">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K181">
         <v>2</v>
@@ -52998,7 +52998,7 @@
         <v>3</v>
       </c>
       <c r="J182">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K182">
         <v>2</v>
@@ -53180,7 +53180,7 @@
         <v>2</v>
       </c>
       <c r="J183">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K183">
         <v>2</v>
@@ -53362,7 +53362,7 @@
         <v>4</v>
       </c>
       <c r="J184">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K184">
         <v>2</v>
@@ -53544,7 +53544,7 @@
         <v>3</v>
       </c>
       <c r="J185">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K185">
         <v>2</v>
@@ -53726,7 +53726,7 @@
         <v>3</v>
       </c>
       <c r="J186">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K186">
         <v>2</v>
@@ -54097,7 +54097,7 @@
         <v>4</v>
       </c>
       <c r="J187">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K187">
         <v>2</v>
@@ -54343,7 +54343,7 @@
         <v>1</v>
       </c>
       <c r="CN187">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO187">
         <v>5</v>
@@ -54468,7 +54468,7 @@
         <v>3</v>
       </c>
       <c r="J188">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K188">
         <v>2</v>
@@ -54765,7 +54765,7 @@
         <v>1</v>
       </c>
       <c r="DE188">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DF188">
         <v>1</v>
@@ -55021,7 +55021,7 @@
         <v>3</v>
       </c>
       <c r="J190">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K190">
         <v>1</v>
@@ -55203,7 +55203,7 @@
         <v>3</v>
       </c>
       <c r="J191">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K191">
         <v>1</v>
@@ -55385,7 +55385,7 @@
         <v>3</v>
       </c>
       <c r="J192">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K192">
         <v>1</v>
@@ -55567,7 +55567,7 @@
         <v>4</v>
       </c>
       <c r="J193">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K193">
         <v>2</v>
@@ -55938,7 +55938,7 @@
         <v>4</v>
       </c>
       <c r="J194">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K194">
         <v>2</v>
@@ -56309,7 +56309,7 @@
         <v>3</v>
       </c>
       <c r="J195">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K195">
         <v>2</v>
@@ -56680,7 +56680,7 @@
         <v>4</v>
       </c>
       <c r="J196">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K196">
         <v>2</v>
@@ -56926,7 +56926,7 @@
         <v>5</v>
       </c>
       <c r="CN196">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO196">
         <v>5</v>
@@ -57051,7 +57051,7 @@
         <v>3</v>
       </c>
       <c r="J197">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K197">
         <v>2</v>
@@ -57233,7 +57233,7 @@
         <v>3</v>
       </c>
       <c r="J198">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K198">
         <v>2</v>
@@ -57415,7 +57415,7 @@
         <v>3</v>
       </c>
       <c r="J199">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K199">
         <v>2</v>
@@ -57786,7 +57786,7 @@
         <v>3</v>
       </c>
       <c r="J200">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K200">
         <v>2</v>
@@ -57968,7 +57968,7 @@
         <v>3</v>
       </c>
       <c r="J201">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K201">
         <v>2</v>
@@ -58339,7 +58339,7 @@
         <v>1</v>
       </c>
       <c r="J202">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K202">
         <v>2</v>
@@ -58710,7 +58710,7 @@
         <v>3</v>
       </c>
       <c r="J203">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K203">
         <v>2</v>
@@ -58892,7 +58892,7 @@
         <v>4</v>
       </c>
       <c r="J204">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K204">
         <v>2</v>
@@ -59138,7 +59138,7 @@
         <v>1</v>
       </c>
       <c r="CN204">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO204">
         <v>2</v>
@@ -59263,7 +59263,7 @@
         <v>1</v>
       </c>
       <c r="J205">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K205">
         <v>2</v>
@@ -59509,7 +59509,7 @@
         <v>1</v>
       </c>
       <c r="CN205">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO205">
         <v>3</v>
@@ -59634,7 +59634,7 @@
         <v>2</v>
       </c>
       <c r="J206">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K206">
         <v>2</v>
@@ -59880,7 +59880,7 @@
         <v>3</v>
       </c>
       <c r="CN206">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO206">
         <v>4</v>
@@ -60220,7 +60220,7 @@
         <v>3</v>
       </c>
       <c r="J208">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K208">
         <v>2</v>
@@ -60466,7 +60466,7 @@
         <v>2</v>
       </c>
       <c r="CN208">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO208">
         <v>4</v>
@@ -60591,7 +60591,7 @@
         <v>3</v>
       </c>
       <c r="J209">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K209">
         <v>2</v>
@@ -60837,7 +60837,7 @@
         <v>1</v>
       </c>
       <c r="CN209">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO209">
         <v>3</v>
@@ -60962,7 +60962,7 @@
         <v>3</v>
       </c>
       <c r="J210">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K210">
         <v>2</v>
@@ -61333,7 +61333,7 @@
         <v>2</v>
       </c>
       <c r="J211">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K211">
         <v>2</v>
@@ -61515,7 +61515,7 @@
         <v>5</v>
       </c>
       <c r="J212">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K212">
         <v>2</v>
@@ -61697,7 +61697,7 @@
         <v>3</v>
       </c>
       <c r="J213">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K213">
         <v>2</v>
@@ -61879,7 +61879,7 @@
         <v>3</v>
       </c>
       <c r="J214">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K214">
         <v>2</v>
@@ -62250,7 +62250,7 @@
         <v>4</v>
       </c>
       <c r="J215">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K215">
         <v>2</v>
@@ -62496,7 +62496,7 @@
         <v>1</v>
       </c>
       <c r="CN215">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO215">
         <v>2</v>
@@ -62621,7 +62621,7 @@
         <v>3</v>
       </c>
       <c r="J216">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K216">
         <v>1</v>
@@ -62803,7 +62803,7 @@
         <v>3</v>
       </c>
       <c r="J217">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K217">
         <v>2</v>
@@ -63174,7 +63174,7 @@
         <v>4</v>
       </c>
       <c r="J218">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K218">
         <v>2</v>
@@ -63356,7 +63356,7 @@
         <v>3</v>
       </c>
       <c r="J219">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K219">
         <v>2</v>
@@ -63942,7 +63942,7 @@
         <v>3</v>
       </c>
       <c r="J221">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K221">
         <v>2</v>
@@ -64339,7 +64339,7 @@
         <v>3</v>
       </c>
       <c r="J223">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K223">
         <v>2</v>
@@ -64521,7 +64521,7 @@
         <v>3</v>
       </c>
       <c r="J224">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K224">
         <v>2</v>
@@ -64767,7 +64767,7 @@
         <v>1</v>
       </c>
       <c r="CN224">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO224">
         <v>5</v>
@@ -64892,7 +64892,7 @@
         <v>5</v>
       </c>
       <c r="J225">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K225">
         <v>2</v>
@@ -65263,7 +65263,7 @@
         <v>2</v>
       </c>
       <c r="J226">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K226">
         <v>2</v>
@@ -65634,7 +65634,7 @@
         <v>3</v>
       </c>
       <c r="J227">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K227">
         <v>2</v>
@@ -65816,7 +65816,7 @@
         <v>3</v>
       </c>
       <c r="J228">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K228">
         <v>2</v>
@@ -65998,7 +65998,7 @@
         <v>3</v>
       </c>
       <c r="J229">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K229">
         <v>1</v>
@@ -66180,7 +66180,7 @@
         <v>3</v>
       </c>
       <c r="J230">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K230">
         <v>0</v>
@@ -66426,7 +66426,7 @@
         <v>2</v>
       </c>
       <c r="CN230">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO230">
         <v>3</v>
@@ -66551,7 +66551,7 @@
         <v>4</v>
       </c>
       <c r="J231">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K231">
         <v>2</v>
@@ -66922,7 +66922,7 @@
         <v>5</v>
       </c>
       <c r="J232">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K232">
         <v>2</v>
@@ -67104,7 +67104,7 @@
         <v>2</v>
       </c>
       <c r="J233">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K233">
         <v>2</v>
@@ -67657,7 +67657,7 @@
         <v>5</v>
       </c>
       <c r="J235">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K235">
         <v>2</v>
@@ -68028,7 +68028,7 @@
         <v>3</v>
       </c>
       <c r="J236">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K236">
         <v>1</v>
@@ -68274,7 +68274,7 @@
         <v>1</v>
       </c>
       <c r="CN236">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO236">
         <v>3</v>
@@ -68399,7 +68399,7 @@
         <v>3</v>
       </c>
       <c r="J237">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K237">
         <v>1</v>
@@ -68581,7 +68581,7 @@
         <v>3</v>
       </c>
       <c r="J238">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K238">
         <v>2</v>
@@ -69167,7 +69167,7 @@
         <v>2</v>
       </c>
       <c r="J240">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K240">
         <v>2</v>
@@ -69349,7 +69349,7 @@
         <v>3</v>
       </c>
       <c r="J241">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K241">
         <v>2</v>
@@ -69531,7 +69531,7 @@
         <v>3</v>
       </c>
       <c r="J242">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K242">
         <v>1</v>
@@ -69902,7 +69902,7 @@
         <v>1</v>
       </c>
       <c r="J243">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K243">
         <v>2</v>
@@ -70148,7 +70148,7 @@
         <v>5</v>
       </c>
       <c r="CN243">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO243">
         <v>1</v>
@@ -70273,7 +70273,7 @@
         <v>3</v>
       </c>
       <c r="J244">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K244">
         <v>2</v>
@@ -70519,7 +70519,7 @@
         <v>2</v>
       </c>
       <c r="CN244">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO244">
         <v>2</v>
@@ -70644,7 +70644,7 @@
         <v>1</v>
       </c>
       <c r="J245">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K245">
         <v>2</v>
@@ -71015,7 +71015,7 @@
         <v>3</v>
       </c>
       <c r="J246">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K246">
         <v>2</v>
@@ -71287,7 +71287,7 @@
         <v>1</v>
       </c>
       <c r="CN247">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO247">
         <v>1</v>
@@ -71412,7 +71412,7 @@
         <v>1</v>
       </c>
       <c r="J248">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K248">
         <v>2</v>
@@ -71594,7 +71594,7 @@
         <v>3</v>
       </c>
       <c r="J249">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K249">
         <v>2</v>
@@ -71776,7 +71776,7 @@
         <v>4</v>
       </c>
       <c r="J250">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K250">
         <v>2</v>
@@ -71958,7 +71958,7 @@
         <v>3</v>
       </c>
       <c r="J251">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K251">
         <v>2</v>
@@ -72140,7 +72140,7 @@
         <v>3</v>
       </c>
       <c r="J252">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K252">
         <v>1</v>
@@ -72386,7 +72386,7 @@
         <v>5</v>
       </c>
       <c r="CN252">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO252">
         <v>1</v>
@@ -72511,7 +72511,7 @@
         <v>3</v>
       </c>
       <c r="J253">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K253">
         <v>2</v>
@@ -72693,7 +72693,7 @@
         <v>3</v>
       </c>
       <c r="J254">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K254">
         <v>2</v>
@@ -72939,7 +72939,7 @@
         <v>4</v>
       </c>
       <c r="CN254">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO254">
         <v>2</v>
@@ -73064,7 +73064,7 @@
         <v>5</v>
       </c>
       <c r="J255">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K255">
         <v>2</v>
@@ -73310,7 +73310,7 @@
         <v>1</v>
       </c>
       <c r="CN255">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CO255">
         <v>2</v>
@@ -73435,7 +73435,7 @@
         <v>3</v>
       </c>
       <c r="J256">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K256">
         <v>2</v>
@@ -73617,7 +73617,7 @@
         <v>5</v>
       </c>
       <c r="J257">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K257">
         <v>2</v>
@@ -73988,7 +73988,7 @@
         <v>1</v>
       </c>
       <c r="J258">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K258">
         <v>2</v>
@@ -74234,7 +74234,7 @@
         <v>1</v>
       </c>
       <c r="CN258">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO258">
         <v>2</v>
@@ -74359,7 +74359,7 @@
         <v>3</v>
       </c>
       <c r="J259">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K259">
         <v>2</v>
@@ -74730,7 +74730,7 @@
         <v>3</v>
       </c>
       <c r="J260">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K260">
         <v>2</v>
@@ -75101,7 +75101,7 @@
         <v>3</v>
       </c>
       <c r="J261">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K261">
         <v>2</v>
@@ -75283,7 +75283,7 @@
         <v>4</v>
       </c>
       <c r="J262">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K262">
         <v>2</v>
@@ -75647,7 +75647,7 @@
         <v>3</v>
       </c>
       <c r="J264">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K264">
         <v>2</v>
@@ -76018,7 +76018,7 @@
         <v>3</v>
       </c>
       <c r="J265">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K265">
         <v>2</v>
@@ -76200,7 +76200,7 @@
         <v>3</v>
       </c>
       <c r="J266">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K266">
         <v>1</v>
@@ -76382,7 +76382,7 @@
         <v>4</v>
       </c>
       <c r="J267">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K267">
         <v>2</v>
